--- a/src/test/resources/TestData/InputData_UserSkillsMap.xlsx
+++ b/src/test/resources/TestData/InputData_UserSkillsMap.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaysh\Documents\Athulya\Phase_2\Numpy-Ninja\SDET\LMS_Hackathon\LMS_API_HACKATHON2122\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D975EE9-A33C-4017-8A13-A96959CCD36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{69EAD94D-37F7-40A5-B3F2-418C6C60B8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0AC15290-BAA0-473B-840B-AEEDC9E05017}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="23280" windowHeight="13224" activeTab="1" xr2:uid="{0AC15290-BAA0-473B-840B-AEEDC9E05017}"/>
   </bookViews>
   <sheets>
     <sheet name="InputData_UserSkillsMap_userGET" sheetId="1" r:id="rId1"/>
-    <sheet name="InputData_UserSkillsMap_skilGET" sheetId="2" r:id="rId2"/>
+    <sheet name="UserSkillsMap_Authorization" sheetId="3" r:id="rId2"/>
+    <sheet name="InputData_UserSkillsMap_skilGET" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:Q11"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>Scenario</t>
   </si>
@@ -92,13 +89,52 @@
   </si>
   <si>
     <t>user_id</t>
+  </si>
+  <si>
+    <t>SCENARIO</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>StatusMessage</t>
+  </si>
+  <si>
+    <t>To Check Authorization without providing username and password</t>
+  </si>
+  <si>
+    <t>Unauthorized Access</t>
+  </si>
+  <si>
+    <t>To Check Authorization with invalid username and correct password</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>2xx@Success</t>
+  </si>
+  <si>
+    <t>To Check Authorization with valid username and invalid password</t>
+  </si>
+  <si>
+    <t>APIPROCESSING</t>
+  </si>
+  <si>
+    <t>New@2022</t>
+  </si>
+  <si>
+    <t>To Check Authorization with valid username and password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,16 +142,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -123,11 +179,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -135,8 +207,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -451,11 +528,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B013EBEA-4941-43F8-B712-20433E27D463}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="42.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.44140625" style="1" customWidth="1"/>
@@ -464,7 +541,7 @@
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -489,7 +566,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -503,7 +580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -517,7 +594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="28.8">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -537,6 +614,102 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6D7136-5B4B-4740-ABFD-E20D379364A4}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="29.4" thickBot="1">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="115.8" thickBot="1">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2">
+        <v>401</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="115.8" thickBot="1">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>401</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="115.8" thickBot="1">
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>401</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="101.4" thickBot="1">
+      <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{B25906D8-B9B5-4320-BA2F-723CCBFB214C}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{3C3376CC-43F3-47AA-9332-353AE2516F04}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{1AA0F084-DD8C-48C9-B962-DB1F3920F925}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E029EE9E-E230-445B-8090-99C4B6987B50}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -544,7 +717,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="43.88671875" customWidth="1"/>
     <col min="2" max="2" width="18.44140625" customWidth="1"/>
@@ -552,7 +725,7 @@
     <col min="4" max="4" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -566,7 +739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -578,7 +751,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -592,7 +765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -606,7 +779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="28.8">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>

--- a/src/test/resources/TestData/InputData_UserSkillsMap.xlsx
+++ b/src/test/resources/TestData/InputData_UserSkillsMap.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{69EAD94D-37F7-40A5-B3F2-418C6C60B8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A13E1E72-912A-4AFF-867A-95463668BB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="23280" windowHeight="13224" activeTab="1" xr2:uid="{0AC15290-BAA0-473B-840B-AEEDC9E05017}"/>
+    <workbookView xWindow="8388" yWindow="480" windowWidth="14640" windowHeight="8964" activeTab="2" xr2:uid="{0AC15290-BAA0-473B-840B-AEEDC9E05017}"/>
   </bookViews>
   <sheets>
     <sheet name="InputData_UserSkillsMap_userGET" sheetId="1" r:id="rId1"/>
@@ -13,19 +13,10 @@
     <sheet name="InputData_UserSkillsMap_skilGET" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:Q11"/>
+  <oleSize ref="A1:F7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -529,7 +520,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -617,7 +608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6D7136-5B4B-4740-ABFD-E20D379364A4}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -713,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E029EE9E-E230-445B-8090-99C4B6987B50}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/src/test/resources/TestData/InputData_UserSkillsMap.xlsx
+++ b/src/test/resources/TestData/InputData_UserSkillsMap.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A13E1E72-912A-4AFF-867A-95463668BB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5CB58FF9-20EF-47A0-B6E2-8779D6F17450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8388" yWindow="480" windowWidth="14640" windowHeight="8964" activeTab="2" xr2:uid="{0AC15290-BAA0-473B-840B-AEEDC9E05017}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="14712" windowHeight="13224" firstSheet="2" activeTab="2" xr2:uid="{0AC15290-BAA0-473B-840B-AEEDC9E05017}"/>
   </bookViews>
   <sheets>
     <sheet name="InputData_UserSkillsMap_userGET" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Scenario</t>
   </si>
@@ -31,9 +31,6 @@
     <t>StatusCode</t>
   </si>
   <si>
-    <t>Status_Message</t>
-  </si>
-  <si>
     <t>GET method for valid User ID</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>Skill not found</t>
   </si>
   <si>
-    <t>skill_id</t>
-  </si>
-  <si>
     <t>GET method for non-existing skill ID</t>
   </si>
   <si>
@@ -119,6 +113,9 @@
   </si>
   <si>
     <t>To Check Authorization with valid username and password</t>
+  </si>
+  <si>
+    <t>Skill_Id</t>
   </si>
 </sst>
 </file>
@@ -520,7 +517,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -537,21 +534,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="1">
         <v>200</v>
@@ -559,44 +556,44 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C3" s="1">
         <v>404</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>404</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>404</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -616,75 +613,75 @@
   <sheetData>
     <row r="1" spans="1:6" ht="29.4" thickBot="1">
       <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="115.8" thickBot="1">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>401</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="115.8" thickBot="1">
       <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="D3">
         <v>401</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="115.8" thickBot="1">
       <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="D4">
         <v>401</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="101.4" thickBot="1">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -705,7 +702,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -721,18 +718,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -744,7 +741,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2">
         <v>200</v>
@@ -753,35 +750,35 @@
         <v>404</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2">
         <v>404</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2">
         <v>404</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
